--- a/biology/Zoologie/Azuré_sarde/Azuré_sarde.xlsx
+++ b/biology/Zoologie/Azuré_sarde/Azuré_sarde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_sarde</t>
+          <t>Azuré_sarde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudophilotes barbagiae
 L’Azuré sarde (Pseudophilotes barbagiae) est une espèce d'insectes lépidoptères (papillons) de la famille des Lycaenidae, de la sous-famille des Polyommatinae et du genre Pseudophilotes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_sarde</t>
+          <t>Azuré_sarde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudophilotes barbagiae a été nommé par Willy O. De Prins et Dirk van der Poorten en 1982.
-Synonymes : Scolitantides barbagiae (Otakar Kudrna)[1].
-Noms vernaculaires
-L’Azuré Sarde se nomme en anglais Sardinian Blue.
+Synonymes : Scolitantides barbagiae (Otakar Kudrna).
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_sarde</t>
+          <t>Azuré_sarde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,15 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un petit papillon au dessus brun grisâtre avec une frange en damiers blancs et chez le mâle une légère suffusion bleue.
-Le revers est ocre et orné de lignes de petits points noirs cernés de blanc avec à l'aile postérieure une ligne submarginale de points orange peu marqués ou même absents[2].
-Espèce proche
-Les autres Pseudophilotes n'ont pas la même aire de répartition.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Azuré Sarde se nomme en anglais Sardinian Blue.
 </t>
         </is>
       </c>
@@ -562,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_sarde</t>
+          <t>Azuré_sarde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,15 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération, en mai juin[2].
-Plantes hôtes
-Ses plantes hôtes seraient des Thymus (thyms)[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon au dessus brun grisâtre avec une frange en damiers blancs et chez le mâle une légère suffusion bleue.
+Le revers est ocre et orné de lignes de petits points noirs cernés de blanc avec à l'aile postérieure une ligne submarginale de points orange peu marqués ou même absents.
 </t>
         </is>
       </c>
@@ -596,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_sarde</t>
+          <t>Azuré_sarde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,16 +626,199 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèce proche</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les autres Pseudophilotes n'ont pas la même aire de répartition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azuré_sarde</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_sarde</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération, en mai juin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_sarde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_sarde</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes seraient des Thymus (thyms).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_sarde</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_sarde</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent uniquement en Sardaigne[1].
-Biotope
-Il habite les zones rocheuses.
-Protection
-Noté LC sur la liste rouge[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent uniquement en Sardaigne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_sarde</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_sarde</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite les zones rocheuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_sarde</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_sarde</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noté LC sur la liste rouge.
 </t>
         </is>
       </c>
